--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/59_Muğla_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/59_Muğla_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{560E5B30-549A-4B59-98C4-C0721299E24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCF5990-D7FB-4B8C-A886-4258A09242A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{CD3C09E4-2560-4F5F-8098-678DA9C36BAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{F2DECB60-1BE5-4BB6-88EF-0A5BE03A6463}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -838,13 +838,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01A73CE9-2B17-4CEB-8E1D-DFAFD02D07FD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3CCE2D85-7A68-4FD4-BE78-6086CF627BAD}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{7D83B066-EC94-4DF9-AF5E-42C468F8F10B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{341010A4-B3BF-4AE1-8B9E-7D1672221E25}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3D57B132-8DB0-4F87-9BF9-3EDECAAEC5EB}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{26F0B5CA-0B4A-4318-A78D-E09F16C2689A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A6C45FD8-8795-407A-820A-895100B23C05}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{06CA045E-FFB3-4112-B88A-744C2823282B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F78076C2-CFE4-40C8-8EE1-4331AE8C1C8B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8C6A2AD3-1505-48C9-8650-78C174786A12}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B919D58E-33DD-493D-93B4-CE90A96433E9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{083FAF16-7568-40ED-9465-BD9AB182923C}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{59B949C6-7345-4770-A455-5D7249FD0397}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{EF30C6D9-3E9C-47B7-8116-584E8F2D75EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60799BD-7278-4DAF-AE7E-BD59BA19F55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF732B-3D17-46F1-B531-E5991069F187}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2529,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11BD35D-217C-42C3-BAF0-EFB4102541FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7E917-3C5E-4B68-A43C-C485A28D2C92}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0322C693-596C-4D4B-A740-3DC4EBD616C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F736F4EC-0CFF-4C83-AB90-31D23FCDB3A1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5147,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB3B93C-A7AC-45DB-8F1A-8A098EFD367D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D2FC98-9216-49C4-BE64-7F0170ACA58A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6458,7 +6458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB8CC1A-D2CD-45D9-B418-D78DC22AAD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9297ED9-F682-45AA-871F-46A69A787143}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7767,7 +7767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE46062D-14D7-47AE-B857-6A461FEA226A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD2ED2F-41C7-40EB-9B50-91DFDBB92AAC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
